--- a/biology/Histoire de la zoologie et de la botanique/Robert_Charles_Wroughton/Robert_Charles_Wroughton.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Charles_Wroughton/Robert_Charles_Wroughton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert Charles Wroughton est un naturaliste britannique, né le 15 août 1849 et mort le 15 mai 1921[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert Charles Wroughton est un naturaliste britannique, né le 15 août 1849 et mort le 15 mai 1921,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est membre du service forestier indien et de la Bombay Natural History Society. Il conduit une importante recherche sur les mammifères à partir de 1911. Celle-ci constitue, probablement, la première recherche collective sur la biodiversité. 50 000 spécimens sont rassemblés durant douze ans, surtout de petits mammifères, ce qui fait l’objet de la parution de quarante-sept articles et la description de plusieurs nouvelles espèces. Plusieurs espèces lui ont été dédiées dont la chauve-souris Otomops wroughtoni par Michael Rogers Oldfield Thomas (1858-1929) en 1913.
 </t>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 liste des publications
@@ -613,7 +629,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 14 décembre 2006).</t>
         </is>
